--- a/template/b2c/nps_b2c.xlsx
+++ b/template/b2c/nps_b2c.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/template/b2c/nps_b2c.xlsx
+++ b/template/b2c/nps_b2c.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
